--- a/keywords/graphics_topwords.xlsx
+++ b/keywords/graphics_topwords.xlsx
@@ -20,36 +20,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">graphic</t>
   </si>
   <si>
-    <t xml:space="preserve">minecraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pixel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lag</t>
+    <t xml:space="preserve">exclamation_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">love graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awesome graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic really</t>
   </si>
   <si>
     <t xml:space="preserve">smooth</t>
   </si>
   <si>
-    <t xml:space="preserve">laggy</t>
+    <t xml:space="preserve">graphic amaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">love pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amaze graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minecraft graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic terrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixelated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixelated game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixel graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixel shoot</t>
   </si>
 </sst>
 </file>
@@ -166,15 +244,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,7 +274,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>251.552795031056</v>
+        <v>490.683229813665</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,7 +282,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>142.857142857143</v>
+        <v>141.304347826087</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,7 +290,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>135.093167701863</v>
+        <v>69.8757763975155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>77.639751552795</v>
+        <v>57.4534161490683</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,7 +306,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>37.2670807453416</v>
+        <v>29.5031055900621</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,7 +314,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20.1863354037267</v>
+        <v>26.3975155279503</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +322,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>15.527950310559</v>
+        <v>21.7391304347826</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>15.527950310559</v>
+        <v>20.1863354037267</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,7 +338,215 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10.8695652173913</v>
+        <v>17.0807453416149</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>17.0807453416149</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>17.0807453416149</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>17.0807453416149</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>17.0807453416149</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15.527950310559</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>15.527950310559</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>13.9751552795031</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>13.9751552795031</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>13.9751552795031</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12.4223602484472</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>12.4223602484472</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>9.3167701863354</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>9.3167701863354</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>9.3167701863354</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7.7639751552795</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>7.7639751552795</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>7.7639751552795</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>4.6583850931677</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3.1055900621118</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3.1055900621118</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3.1055900621118</v>
       </c>
     </row>
   </sheetData>
